--- a/final_data_pipeline/output/325194longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/325194longform_elec_options_nowhp.xlsx
@@ -576,7 +576,7 @@
         <v>39</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="J2">
         <v>8000</v>
@@ -591,10 +591,10 @@
         <v>1526326.472640449</v>
       </c>
       <c r="N2">
-        <v>1.052935222672065</v>
+        <v>1.105721877767936</v>
       </c>
       <c r="O2">
-        <v>1.086814345991561</v>
+        <v>1.143718778908418</v>
       </c>
       <c r="P2">
         <v>190.7908090800561</v>
@@ -629,7 +629,7 @@
         <v>40</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="J3">
         <v>8000</v>
@@ -976,7 +976,7 @@
         <v>39</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="J10">
         <v>8000</v>
@@ -991,10 +991,10 @@
         <v>358787.9976041867</v>
       </c>
       <c r="N10">
-        <v>1.052935222672065</v>
+        <v>1.004851086664878</v>
       </c>
       <c r="O10">
-        <v>1.086814345991561</v>
+        <v>1.035188389617639</v>
       </c>
       <c r="P10">
         <v>44.84849970052334</v>
@@ -1029,7 +1029,7 @@
         <v>40</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="J11">
         <v>8000</v>
@@ -1376,7 +1376,7 @@
         <v>39</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J18">
         <v>8000</v>
@@ -1391,10 +1391,10 @@
         <v>260213.1745406333</v>
       </c>
       <c r="N18">
-        <v>1.052935222672065</v>
+        <v>1.103333005990376</v>
       </c>
       <c r="O18">
-        <v>1.086814345991561</v>
+        <v>1.14113834478515</v>
       </c>
       <c r="P18">
         <v>32.52664681757916</v>
@@ -1429,7 +1429,7 @@
         <v>40</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J19">
         <v>8000</v>
@@ -1576,7 +1576,7 @@
         <v>39</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J22">
         <v>8000</v>
@@ -1591,10 +1591,10 @@
         <v>1032763.989452207</v>
       </c>
       <c r="N22">
-        <v>1.052935222672065</v>
+        <v>1.065614691876665</v>
       </c>
       <c r="O22">
-        <v>1.086814345991561</v>
+        <v>1.100460934966844</v>
       </c>
       <c r="P22">
         <v>129.0954986815259</v>
@@ -1629,7 +1629,7 @@
         <v>40</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J23">
         <v>8000</v>
